--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-F2rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-F2rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H2">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I2">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J2">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8626043333333334</v>
+        <v>0.163436</v>
       </c>
       <c r="N2">
-        <v>2.587813</v>
+        <v>0.490308</v>
       </c>
       <c r="O2">
-        <v>0.4550899456719102</v>
+        <v>0.1789685622010547</v>
       </c>
       <c r="P2">
-        <v>0.4550899456719102</v>
+        <v>0.1789685622010547</v>
       </c>
       <c r="Q2">
-        <v>0.4161801376337779</v>
+        <v>0.06284871453466667</v>
       </c>
       <c r="R2">
-        <v>3.745621238704</v>
+        <v>0.565638430812</v>
       </c>
       <c r="S2">
-        <v>0.09556237277070448</v>
+        <v>0.03552257865048214</v>
       </c>
       <c r="T2">
-        <v>0.09556237277070445</v>
+        <v>0.03552257865048213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H3">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I3">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J3">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.163436</v>
+        <v>0.7497746666666667</v>
       </c>
       <c r="N3">
-        <v>0.490308</v>
+        <v>2.249324</v>
       </c>
       <c r="O3">
-        <v>0.08622502517859788</v>
+        <v>0.8210314377989453</v>
       </c>
       <c r="P3">
-        <v>0.0862250251785979</v>
+        <v>0.8210314377989452</v>
       </c>
       <c r="Q3">
-        <v>0.07885285796266667</v>
+        <v>0.2883230988928889</v>
       </c>
       <c r="R3">
-        <v>0.7096757216639999</v>
+        <v>2.594907890036</v>
       </c>
       <c r="S3">
-        <v>0.01810602074742594</v>
+        <v>0.1629624413642386</v>
       </c>
       <c r="T3">
-        <v>0.01810602074742594</v>
+        <v>0.1629624413642385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4824693333333334</v>
+        <v>1.110828</v>
       </c>
       <c r="H4">
-        <v>1.447408</v>
+        <v>3.332484</v>
       </c>
       <c r="I4">
-        <v>0.2099856823459656</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J4">
-        <v>0.2099856823459655</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.8694186666666668</v>
+        <v>0.163436</v>
       </c>
       <c r="N4">
-        <v>2.608256</v>
+        <v>0.490308</v>
       </c>
       <c r="O4">
-        <v>0.4586850291494918</v>
+        <v>0.1789685622010547</v>
       </c>
       <c r="P4">
-        <v>0.4586850291494919</v>
+        <v>0.1789685622010547</v>
       </c>
       <c r="Q4">
-        <v>0.4194678444942223</v>
+        <v>0.181549285008</v>
       </c>
       <c r="R4">
-        <v>3.775210600448001</v>
+        <v>1.633943565072</v>
       </c>
       <c r="S4">
-        <v>0.09631728882783515</v>
+        <v>0.102613057456859</v>
       </c>
       <c r="T4">
-        <v>0.09631728882783513</v>
+        <v>0.1026130574568589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,45 +726,45 @@
         <v>3.332484</v>
       </c>
       <c r="I5">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J5">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.8626043333333334</v>
+        <v>0.7497746666666667</v>
       </c>
       <c r="N5">
-        <v>2.587813</v>
+        <v>2.249324</v>
       </c>
       <c r="O5">
-        <v>0.4550899456719102</v>
+        <v>0.8210314377989453</v>
       </c>
       <c r="P5">
-        <v>0.4550899456719102</v>
+        <v>0.8210314377989452</v>
       </c>
       <c r="Q5">
-        <v>0.9582050463880001</v>
+        <v>0.832870693424</v>
       </c>
       <c r="R5">
-        <v>8.623845417492001</v>
+        <v>7.495836240816001</v>
       </c>
       <c r="S5">
-        <v>0.2200209465889426</v>
+        <v>0.4707449457302182</v>
       </c>
       <c r="T5">
-        <v>0.2200209465889426</v>
+        <v>0.4707449457302182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.110828</v>
+        <v>0.442033</v>
       </c>
       <c r="H6">
-        <v>3.332484</v>
+        <v>1.326099</v>
       </c>
       <c r="I6">
-        <v>0.4834669468781523</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J6">
-        <v>0.4834669468781522</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>0.490308</v>
       </c>
       <c r="O6">
-        <v>0.08622502517859788</v>
+        <v>0.1789685622010547</v>
       </c>
       <c r="P6">
-        <v>0.0862250251785979</v>
+        <v>0.1789685622010547</v>
       </c>
       <c r="Q6">
-        <v>0.181549285008</v>
+        <v>0.072244105388</v>
       </c>
       <c r="R6">
-        <v>1.633943565072</v>
+        <v>0.6501969484919999</v>
       </c>
       <c r="S6">
-        <v>0.04168694966758853</v>
+        <v>0.04083292609371364</v>
       </c>
       <c r="T6">
-        <v>0.04168694966758853</v>
+        <v>0.04083292609371363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,238 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.110828</v>
+        <v>0.442033</v>
       </c>
       <c r="H7">
-        <v>3.332484</v>
+        <v>1.326099</v>
       </c>
       <c r="I7">
-        <v>0.4834669468781523</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J7">
-        <v>0.4834669468781522</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8694186666666668</v>
+        <v>0.7497746666666667</v>
       </c>
       <c r="N7">
-        <v>2.608256</v>
+        <v>2.249324</v>
       </c>
       <c r="O7">
-        <v>0.4586850291494918</v>
+        <v>0.8210314377989453</v>
       </c>
       <c r="P7">
-        <v>0.4586850291494919</v>
+        <v>0.8210314377989452</v>
       </c>
       <c r="Q7">
-        <v>0.965774598656</v>
+        <v>0.3314251452306666</v>
       </c>
       <c r="R7">
-        <v>8.691971387904001</v>
+        <v>2.982826307076</v>
       </c>
       <c r="S7">
-        <v>0.2217590506216211</v>
+        <v>0.1873240507044885</v>
       </c>
       <c r="T7">
-        <v>0.2217590506216211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.7043323333333333</v>
-      </c>
-      <c r="H8">
-        <v>2.112997</v>
-      </c>
-      <c r="I8">
-        <v>0.3065473707758822</v>
-      </c>
-      <c r="J8">
-        <v>0.3065473707758822</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.8626043333333334</v>
-      </c>
-      <c r="N8">
-        <v>2.587813</v>
-      </c>
-      <c r="O8">
-        <v>0.4550899456719102</v>
-      </c>
-      <c r="P8">
-        <v>0.4550899456719102</v>
-      </c>
-      <c r="Q8">
-        <v>0.6075601228401112</v>
-      </c>
-      <c r="R8">
-        <v>5.468041105561</v>
-      </c>
-      <c r="S8">
-        <v>0.1395066263122632</v>
-      </c>
-      <c r="T8">
-        <v>0.1395066263122632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.7043323333333333</v>
-      </c>
-      <c r="H9">
-        <v>2.112997</v>
-      </c>
-      <c r="I9">
-        <v>0.3065473707758822</v>
-      </c>
-      <c r="J9">
-        <v>0.3065473707758822</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.163436</v>
-      </c>
-      <c r="N9">
-        <v>0.490308</v>
-      </c>
-      <c r="O9">
-        <v>0.08622502517859788</v>
-      </c>
-      <c r="P9">
-        <v>0.0862250251785979</v>
-      </c>
-      <c r="Q9">
-        <v>0.1151132592306667</v>
-      </c>
-      <c r="R9">
-        <v>1.036019333076</v>
-      </c>
-      <c r="S9">
-        <v>0.02643205476358343</v>
-      </c>
-      <c r="T9">
-        <v>0.02643205476358343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7043323333333333</v>
-      </c>
-      <c r="H10">
-        <v>2.112997</v>
-      </c>
-      <c r="I10">
-        <v>0.3065473707758822</v>
-      </c>
-      <c r="J10">
-        <v>0.3065473707758822</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.8694186666666668</v>
-      </c>
-      <c r="N10">
-        <v>2.608256</v>
-      </c>
-      <c r="O10">
-        <v>0.4586850291494918</v>
-      </c>
-      <c r="P10">
-        <v>0.4586850291494919</v>
-      </c>
-      <c r="Q10">
-        <v>0.612359678136889</v>
-      </c>
-      <c r="R10">
-        <v>5.511237103232001</v>
-      </c>
-      <c r="S10">
-        <v>0.1406086897000356</v>
-      </c>
-      <c r="T10">
-        <v>0.1406086897000356</v>
+        <v>0.1873240507044884</v>
       </c>
     </row>
   </sheetData>
